--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3922235.411765466</v>
+        <v>4025032.831833121</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7176674.041236012</v>
+        <v>7142774.310972055</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>202.6460827821291</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>61.63936884538654</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.380068175848296</v>
       </c>
       <c r="E4" t="n">
-        <v>127.1445452811175</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>22.0581631138698</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>346.9270182210263</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>92.60421783198937</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>205.3598691772488</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>151.7611701629554</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>284.8316859696386</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>197.0289999663472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.29550035394089</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>99.79417418837922</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1768,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>243.1373908222619</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>66.78466399819887</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>150.6726801246962</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>73.23997380652436</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>127.6210071331219</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y25" t="n">
-        <v>145.9348656155988</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>107.9721668030647</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2767,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>23.08134457786424</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.76123719079619</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600556</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541838</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972053</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.120802835248</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652543</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808203</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>92.20984583428664</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796265</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796265</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>563.5047572728761</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>177.7165046746318</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>170.7710039254284</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,13 +4330,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2972.837166339058</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2599.371408077978</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>753.0765981364621</v>
+        <v>241.892812669028</v>
       </c>
       <c r="C4" t="n">
-        <v>753.0765981364621</v>
+        <v>72.95662974112111</v>
       </c>
       <c r="D4" t="n">
-        <v>753.0765981364621</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4489,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4516,22 +4518,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1161.740577577776</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.507193008249</v>
+        <v>872.3234075408152</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.517642110232</v>
+        <v>644.3338566427979</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.7250629667018</v>
+        <v>423.5412774992677</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796261</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C5" t="n">
-        <v>552.8079389392144</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D5" t="n">
-        <v>552.8079389392144</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4568,13 +4570,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2721.644013346617</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2331.504681370805</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,46 +4652,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>699.4849621798493</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="C7" t="n">
-        <v>530.5487792519424</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4726,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368017</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>927.4745130778666</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>699.4849621798493</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.4849621798493</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943747</v>
+        <v>2217.803762225667</v>
       </c>
       <c r="C8" t="n">
-        <v>939.4077790033357</v>
+        <v>1848.841245285255</v>
       </c>
       <c r="D8" t="n">
-        <v>786.1136677276231</v>
+        <v>1490.575546678505</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>1104.787294080261</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>693.8013892906531</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2604.403602289789</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.67533979849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592603</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556427</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>584.5841306576253</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>385.5649387724261</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>1336.167399417937</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1888.077129657224</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>808.8888553856871</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>639.9526724577802</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1587.583657704828</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1298.166487667867</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1070.17693676985</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="Y13" t="n">
-        <v>849.3843576263199</v>
+        <v>990.5373202159268</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5267,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.079034721979</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2129.60328892373</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1840.528062267928</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1585.843574062041</v>
       </c>
       <c r="W19" t="n">
-        <v>1653.302830625878</v>
+        <v>1296.426404025081</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.58852738579</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557011</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L21" t="n">
-        <v>2877.307316025034</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M21" t="n">
-        <v>3474.685803651586</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N21" t="n">
-        <v>4102.283767206192</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>4654.19349744548</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X22" t="n">
-        <v>1198.22892174168</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="23">
@@ -5990,19 +5992,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>4101.537227310363</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.8386896933887</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9025067654818</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
         <v>175.9033664000583</v>
@@ -6175,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.4871545236284</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6251,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2737913123336</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3301.483384420093</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="C28" t="n">
-        <v>3132.547201492187</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="D28" t="n">
         <v>3023.484406741616</v>
@@ -6415,19 +6417,19 @@
         <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328841</v>
+        <v>4198.016659856251</v>
       </c>
       <c r="V28" t="n">
-        <v>4221.331149328841</v>
+        <v>3943.332171650364</v>
       </c>
       <c r="W28" t="n">
-        <v>3931.91397929188</v>
+        <v>3653.915001613404</v>
       </c>
       <c r="X28" t="n">
-        <v>3703.924428393863</v>
+        <v>3425.925450715386</v>
       </c>
       <c r="Y28" t="n">
-        <v>3483.131849250333</v>
+        <v>3205.132871571856</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>2878.328163333972</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>3475.706650960524</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>4103.30461451513</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>4655.214344754417</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>4655.214344754417</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
-        <v>4655.214344754417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>3192.420589669523</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>4647.639983519001</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>4647.639983519001</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4428.038518541943</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>4138.963291886141</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>3884.278803680254</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>3594.861633643293</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>3594.861633643293</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>3374.069054499763</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.49319221331</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C34" t="n">
-        <v>2834.086956247059</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D34" t="n">
-        <v>2708.50026379638</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E34" t="n">
-        <v>2585.117117175643</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F34" t="n">
-        <v>2462.757116639389</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="G34" t="n">
-        <v>2320.090964315925</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H34" t="n">
-        <v>2202.909080119779</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>2145.352323729349</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>2249.630143176792</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>2535.36120671945</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>2949.80160191251</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>3395.853105660664</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>3837.304778337792</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>4230.875860063896</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>4547.593116654574</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4648.317395612651</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>4489.992508229212</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>4294.920990213809</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>4030.375710519663</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>3800.221169275433</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>3535.333946200129</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X34" t="n">
-        <v>3331.874342263768</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y34" t="n">
-        <v>3135.611710081893</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345472</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,10 +7256,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
         <v>949.9304447718133</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2978.493192213312</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>2834.086956247061</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>2708.500263796382</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>2585.117117175645</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>2462.757116639391</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>2320.090964315927</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2202.909080119781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4648.317395612652</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4489.992508229213</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4294.920990213811</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>4030.375710519665</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>3800.221169275434</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>3535.33394620013</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>3331.874342263769</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>3135.611710081895</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2383.002557118213</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2383.002557118213</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>2980.381044744765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>3607.979008299372</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958011</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384016</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.872235754091</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1653.302830625878</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1425.313279727861</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.520700584331</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.31997266427146</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>152.3434691354488</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>43.04708356698225</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>150.6207863290894</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>75.03697526434095</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>75.37549921168799</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>98.0886482559152</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.64978773649599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>40.64330621514762</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>263.1031298113799</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>23.61400951932549</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>75.03697526434119</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>615119.0532077018</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>615119.0532077018</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>615119.0532077017</v>
+        <v>615119.0532077018</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>615119.0532077018</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>625540.4308384097</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>625540.4308384097</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>625540.4308384097</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>625540.4308384097</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>625540.4308384097</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>615119.0532077018</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642834</v>
@@ -26320,37 +26322,37 @@
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="F2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>807146.599690006</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
-        <v>821041.7698642849</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642848</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642839</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642845</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642833</v>
+        <v>807146.599690006</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900062</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,7 +26392,7 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>89744.12305813242</v>
+      </c>
+      <c r="C4" t="n">
+        <v>89744.12305813251</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813246</v>
-      </c>
-      <c r="C4" t="n">
-        <v>89744.12305813249</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26442,19 +26444,19 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>18547.94754987467</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>18547.94754987473</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987473</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987468</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987466</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705381.0394828351</v>
+        <v>-705381.039482835</v>
       </c>
       <c r="C6" t="n">
-        <v>623363.7062447576</v>
+        <v>623363.7062447579</v>
       </c>
       <c r="D6" t="n">
-        <v>623363.7062447576</v>
+        <v>623363.7062447573</v>
       </c>
       <c r="E6" t="n">
-        <v>370054.5197719624</v>
+        <v>370054.519771962</v>
       </c>
       <c r="F6" t="n">
+        <v>695466.9815793183</v>
+      </c>
+      <c r="G6" t="n">
+        <v>695466.9815793175</v>
+      </c>
+      <c r="H6" t="n">
+        <v>695466.9815793179</v>
+      </c>
+      <c r="I6" t="n">
+        <v>695466.9815793177</v>
+      </c>
+      <c r="J6" t="n">
+        <v>477935.7791820403</v>
+      </c>
+      <c r="K6" t="n">
         <v>695466.9815793181</v>
       </c>
-      <c r="G6" t="n">
-        <v>695466.9815793176</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>695466.9815793181</v>
+      </c>
+      <c r="M6" t="n">
+        <v>610411.9536438059</v>
+      </c>
+      <c r="N6" t="n">
+        <v>695466.9815793182</v>
+      </c>
+      <c r="O6" t="n">
         <v>695466.9815793177</v>
-      </c>
-      <c r="I6" t="n">
-        <v>695466.9815793179</v>
-      </c>
-      <c r="J6" t="n">
-        <v>477935.7791820404</v>
-      </c>
-      <c r="K6" t="n">
-        <v>679901.9884668631</v>
-      </c>
-      <c r="L6" t="n">
-        <v>699329.7064604947</v>
-      </c>
-      <c r="M6" t="n">
-        <v>614274.678524982</v>
-      </c>
-      <c r="N6" t="n">
-        <v>699329.7064604945</v>
-      </c>
-      <c r="O6" t="n">
-        <v>699329.7064604932</v>
       </c>
       <c r="P6" t="n">
         <v>695466.9815793179</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="C3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>162.6268089888784</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>349.2823568080669</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>142.2354048423641</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28941736545171</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>359.872206958392</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>22.80408245744275</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>56.01125518622298</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>81.16312915934222</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>202.9218714577275</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>126.0900396838149</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>73.08464294440368</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.55565338574755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>615.0381444378769</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>533.0479862785273</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,7 +31998,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
         <v>699.5441750817575</v>
@@ -32072,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>154.5219885631796</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L21" t="n">
-        <v>453.4978307576753</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>272.9327299394441</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>216.0947523943934</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>302.5540177178169</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33268,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R30" t="n">
-        <v>181.6580975439405</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,22 +33733,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33757,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,13 +33976,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M39" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,25 +34207,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O42" t="n">
-        <v>535.8585467435948</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,22 +34444,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>472.9041105158586</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>399.073578864197</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>20.54758114884936</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>159.048271228012</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L21" t="n">
-        <v>314.9434509778011</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>130.3364854949997</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>77.54037261451923</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>171.2123056344836</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R30" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37405,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M39" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O42" t="n">
-        <v>393.2623022991504</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4025032.831833121</v>
+        <v>4021020.221819128</v>
       </c>
     </row>
     <row r="7">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>202.6460827821291</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>120.5643831243135</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>6.380068175848296</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>37.59617708813238</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="X5" t="n">
-        <v>346.9270182210263</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>92.60421783198937</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>85.47654389282617</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>271.2930916328078</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>284.8316859696386</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>71.6703719699171</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>71.67037196991755</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695581</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D13" t="n">
-        <v>83.29550035394089</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>66.78466399819887</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>73.23997380652436</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>119.8099036979372</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105462</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695597</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>70.04554881124375</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>23.08134457786424</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.76123719079619</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206843</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>93.4044447618827</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1822.632236038044</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4327,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
@@ -4339,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609172</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609172</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339058</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2599.371408077978</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2209.232076102166</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.892812669028</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>72.95662974112111</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1889.318611635834</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1889.318611635834</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1889.318611635834</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783663</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577776</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W4" t="n">
-        <v>872.3234075408152</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X4" t="n">
-        <v>644.3338566427979</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>423.5412774992677</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>3072.075344883007</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X5" t="n">
-        <v>2721.644013346617</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>2331.504681370805</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>866.1004720732712</v>
+        <v>934.4107598040977</v>
       </c>
       <c r="C7" t="n">
-        <v>866.1004720732712</v>
+        <v>765.4745768761908</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>615.357937463855</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>467.4448438814619</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>320.5548963835515</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>152.8520597582705</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>866.1004720732712</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2217.803762225667</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="C8" t="n">
-        <v>1848.841245285255</v>
+        <v>758.7856865549932</v>
       </c>
       <c r="D8" t="n">
-        <v>1490.575546678505</v>
+        <v>400.5199879482427</v>
       </c>
       <c r="E8" t="n">
-        <v>1104.787294080261</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>693.8013892906531</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265601</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2994.542934265601</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>2604.403602289789</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G10" t="n">
-        <v>138.9064315533118</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -5001,13 +5001,13 @@
         <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
         <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1540.888753373306</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.8888553856871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>639.9526724577802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359457</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159268</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,10 +5305,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2129.60328892373</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1840.528062267928</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1585.843574062041</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1296.426404025081</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1068.436853127063</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>847.644273983533</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1022.530292372932</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>853.5941094450255</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>2197.062545487567</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1942.37805728168</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1652.96088724472</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1424.971336346702</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1204.178757203172</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6083,10 +6083,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>620.8230468926974</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1023.264090866467</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>802.4715117229372</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6220,37 +6220,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3023.484406741616</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C28" t="n">
-        <v>3023.484406741616</v>
+        <v>853.594109445026</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>703.4774700326902</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>555.5643764502971</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>4198.016659856251</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V28" t="n">
-        <v>3943.332171650364</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W28" t="n">
-        <v>3653.915001613404</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X28" t="n">
-        <v>3425.925450715386</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y28" t="n">
-        <v>3205.132871571856</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3192.420589669523</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4647.639983519001</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4647.639983519001</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4428.038518541943</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>4138.963291886141</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3884.278803680254</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3594.861633643293</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3594.861633643293</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3374.069054499763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7253,22 +7253,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7502,16 +7502,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D13" t="n">
-        <v>65.31997266427146</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>150.6207863290894</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>75.37549921168799</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>105.8997516911</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
     </row>
     <row r="26">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>75.3754992116875</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>263.1031298113799</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>23.61400951932549</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>72.11969353038614</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>615119.0532077018</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>615119.0532077017</v>
+        <v>615119.0532077018</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642829</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642834</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.769864283</v>
-      </c>
       <c r="E2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.5996900059</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="H2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="O2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900063</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.775545310826068e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678118</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
@@ -26444,13 +26444,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678112</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705381.039482835</v>
+        <v>-705381.0394828354</v>
       </c>
       <c r="C6" t="n">
-        <v>623363.7062447579</v>
+        <v>623363.7062447572</v>
       </c>
       <c r="D6" t="n">
-        <v>623363.7062447573</v>
+        <v>623363.7062447574</v>
       </c>
       <c r="E6" t="n">
-        <v>370054.519771962</v>
+        <v>369707.1405176059</v>
       </c>
       <c r="F6" t="n">
-        <v>695466.9815793183</v>
+        <v>695119.6023249606</v>
       </c>
       <c r="G6" t="n">
-        <v>695466.9815793175</v>
+        <v>695119.6023249609</v>
       </c>
       <c r="H6" t="n">
-        <v>695466.9815793179</v>
+        <v>695119.6023249611</v>
       </c>
       <c r="I6" t="n">
-        <v>695466.9815793177</v>
+        <v>695119.6023249609</v>
       </c>
       <c r="J6" t="n">
-        <v>477935.7791820403</v>
+        <v>477588.3999276833</v>
       </c>
       <c r="K6" t="n">
-        <v>695466.9815793181</v>
+        <v>695119.6023249612</v>
       </c>
       <c r="L6" t="n">
-        <v>695466.9815793181</v>
+        <v>695119.6023249608</v>
       </c>
       <c r="M6" t="n">
-        <v>610411.9536438059</v>
+        <v>610064.5743894491</v>
       </c>
       <c r="N6" t="n">
-        <v>695466.9815793182</v>
+        <v>695119.602324961</v>
       </c>
       <c r="O6" t="n">
-        <v>695466.9815793177</v>
+        <v>695119.602324961</v>
       </c>
       <c r="P6" t="n">
-        <v>695466.9815793179</v>
+        <v>695119.6023249611</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.401455402293</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.469431638532584e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.469431638532584e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>162.6268089888784</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>286.3116626173979</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>142.2354048423641</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>51.33597558191495</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>331.8898480104172</v>
       </c>
       <c r="X5" t="n">
-        <v>22.80408245744275</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>56.01125518622298</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.27847102149461</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>110.637278439454</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>126.0900396838149</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>73.08464294440368</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>24.68204843992054</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-5.142369289011372e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -29748,13 +29748,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-1.285915741704982e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29763,10 +29763,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29802,19 +29802,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>615.0381444378769</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>211.0222436375122</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>472.9041105158586</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>477.985332142731</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>73.18080466315317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>108.4053175402704</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4021020.221819128</v>
+        <v>4022780.752121913</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120.5643831243135</v>
+        <v>120.564383124314</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>271.2930916328078</v>
+        <v>271.2930916328082</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>71.67037196991755</v>
+        <v>71.67037196991754</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695581</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.07916359105462</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695597</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.90570098813</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.04554881124375</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206843</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.752258470135</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4309,13 +4309,13 @@
         <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>942.9472709150252</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D2" t="n">
-        <v>942.9472709150252</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="E2" t="n">
-        <v>942.9472709150252</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4354,13 +4354,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4369,7 +4369,7 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
         <v>1698.509627919559</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4470,22 +4470,22 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4783,10 +4783,10 @@
         <v>1127.748203495405</v>
       </c>
       <c r="C8" t="n">
-        <v>758.7856865549932</v>
+        <v>758.7856865549936</v>
       </c>
       <c r="D8" t="n">
-        <v>400.5199879482427</v>
+        <v>400.5199879482431</v>
       </c>
       <c r="E8" t="n">
         <v>126.4865620565176</v>
@@ -4801,16 +4801,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4822,10 +4822,10 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609172</v>
@@ -4837,16 +4837,16 @@
         <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y8" t="n">
         <v>1514.348043559527</v>
@@ -4874,13 +4874,13 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4959,7 +4959,7 @@
         <v>138.9064315533123</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5047,16 +5047,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5071,7 +5071,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5129,13 +5129,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,10 +5305,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
@@ -6226,37 +6226,37 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1022.530292372933</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>853.594109445026</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>703.4774700326902</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>555.5643764502971</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487568</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1942.378057281681</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1652.96088724472</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1424.971336346703</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1204.178757203173</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,31 +6481,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398594</v>
@@ -6736,16 +6736,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6849,7 +6849,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797189</v>
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6961,25 +6961,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7086,13 +7086,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7785,16 +7785,16 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>75.3754992116875</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>615119.0532077018</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="11">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.599690006</v>
-      </c>
-      <c r="F2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900063</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.599690006</v>
       </c>
       <c r="L2" t="n">
         <v>807146.599690006</v>
@@ -26352,10 +26352,10 @@
         <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26377,28 +26377,28 @@
         <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>2.775545310826068e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813246</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813242</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678118</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
+        <v>10557.08828678113</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10557.0882867812</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10557.0882867812</v>
+      </c>
+      <c r="M4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10557.08828678117</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10557.08828678112</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10557.0882867812</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705381.0394828354</v>
+        <v>-705381.0394828352</v>
       </c>
       <c r="C6" t="n">
-        <v>623363.7062447572</v>
+        <v>623363.7062447575</v>
       </c>
       <c r="D6" t="n">
         <v>623363.7062447574</v>
       </c>
       <c r="E6" t="n">
-        <v>369707.1405176059</v>
+        <v>370019.7818465272</v>
       </c>
       <c r="F6" t="n">
-        <v>695119.6023249606</v>
+        <v>695432.2436538823</v>
       </c>
       <c r="G6" t="n">
-        <v>695119.6023249609</v>
+        <v>695432.2436538821</v>
       </c>
       <c r="H6" t="n">
-        <v>695119.6023249611</v>
+        <v>695432.2436538821</v>
       </c>
       <c r="I6" t="n">
-        <v>695119.6023249609</v>
+        <v>695432.2436538823</v>
       </c>
       <c r="J6" t="n">
-        <v>477588.3999276833</v>
+        <v>477901.0412566046</v>
       </c>
       <c r="K6" t="n">
-        <v>695119.6023249612</v>
+        <v>695432.2436538821</v>
       </c>
       <c r="L6" t="n">
-        <v>695119.6023249608</v>
+        <v>695432.2436538821</v>
       </c>
       <c r="M6" t="n">
-        <v>610064.5743894491</v>
+        <v>610377.2157183706</v>
       </c>
       <c r="N6" t="n">
-        <v>695119.602324961</v>
+        <v>695432.2436538823</v>
       </c>
       <c r="O6" t="n">
-        <v>695119.602324961</v>
+        <v>695432.2436538824</v>
       </c>
       <c r="P6" t="n">
-        <v>695119.6023249611</v>
+        <v>695432.2436538823</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.469431638532584e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.469431638532584e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>286.3116626173979</v>
+        <v>286.3116626173975</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>110.637278439454</v>
+        <v>110.6372784394536</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>24.68204843992054</v>
+        <v>24.68204843992055</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29286,13 +29286,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-5.530977974472237e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-5.530977974472237e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-5.530977974472237e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29328,10 +29328,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-5.530977974472237e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-1.3301582058034e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-5.530977974472237e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29748,13 +29748,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.285915741704982e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29763,10 +29763,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29802,19 +29802,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32733,7 +32733,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
